--- a/Code/Results/Cases/Case_0_181/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_181/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9869301857721716</v>
+        <v>1.03277891718434</v>
       </c>
       <c r="D2">
-        <v>1.001770133077216</v>
+        <v>1.040946397824372</v>
       </c>
       <c r="E2">
-        <v>1.002634358953114</v>
+        <v>1.041521604215283</v>
       </c>
       <c r="F2">
-        <v>1.008381256814217</v>
+        <v>1.05097486132993</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310602</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>1.009508966044422</v>
+        <v>1.037907263792016</v>
       </c>
       <c r="K2">
-        <v>1.013204862098452</v>
+        <v>1.043727305393432</v>
       </c>
       <c r="L2">
-        <v>1.014057114573383</v>
+        <v>1.044300882976483</v>
       </c>
       <c r="M2">
-        <v>1.019725049382205</v>
+        <v>1.053727648330375</v>
       </c>
       <c r="N2">
-        <v>1.006580085832158</v>
+        <v>1.016511895717824</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9920853276894646</v>
+        <v>1.033887469934977</v>
       </c>
       <c r="D3">
-        <v>1.006167499211726</v>
+        <v>1.041948041778461</v>
       </c>
       <c r="E3">
-        <v>1.006997039482447</v>
+        <v>1.042516183855932</v>
       </c>
       <c r="F3">
-        <v>1.013161255380655</v>
+        <v>1.052073023416918</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208684</v>
       </c>
       <c r="J3">
-        <v>1.012794104984076</v>
+        <v>1.038657446785932</v>
       </c>
       <c r="K3">
-        <v>1.016722069299321</v>
+        <v>1.044538974358904</v>
       </c>
       <c r="L3">
-        <v>1.01754116792187</v>
+        <v>1.045105624527215</v>
       </c>
       <c r="M3">
-        <v>1.023628460164757</v>
+        <v>1.054637628989984</v>
       </c>
       <c r="N3">
-        <v>1.007741802494142</v>
+        <v>1.016769671234598</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9953519635318722</v>
+        <v>1.034605539528363</v>
       </c>
       <c r="D4">
-        <v>1.008960383314181</v>
+        <v>1.042597193449365</v>
       </c>
       <c r="E4">
-        <v>1.009768144449613</v>
+        <v>1.043160767956478</v>
       </c>
       <c r="F4">
-        <v>1.016197897706754</v>
+        <v>1.052784864318794</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>1.01487531852866</v>
+        <v>1.039143086872412</v>
       </c>
       <c r="K4">
-        <v>1.018951854060317</v>
+        <v>1.045064588212532</v>
       </c>
       <c r="L4">
-        <v>1.019750088973159</v>
+        <v>1.045626757672421</v>
       </c>
       <c r="M4">
-        <v>1.026104681406542</v>
+        <v>1.055227109970175</v>
       </c>
       <c r="N4">
-        <v>1.008476628887285</v>
+        <v>1.016936320762674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9967094010272057</v>
+        <v>1.034907598564819</v>
       </c>
       <c r="D5">
-        <v>1.010122441029146</v>
+        <v>1.042870340833675</v>
       </c>
       <c r="E5">
-        <v>1.010921197648188</v>
+        <v>1.043431995946438</v>
       </c>
       <c r="F5">
-        <v>1.01746156295345</v>
+        <v>1.053084422705107</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628374</v>
       </c>
       <c r="J5">
-        <v>1.015740004889821</v>
+        <v>1.039347302746772</v>
       </c>
       <c r="K5">
-        <v>1.019878637744346</v>
+        <v>1.045285654064283</v>
       </c>
       <c r="L5">
-        <v>1.020668236170906</v>
+        <v>1.045845940244149</v>
       </c>
       <c r="M5">
-        <v>1.027134279056552</v>
+        <v>1.055475086085017</v>
       </c>
       <c r="N5">
-        <v>1.008781640676389</v>
+        <v>1.017006344425932</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9969364101005401</v>
+        <v>1.034958326318581</v>
       </c>
       <c r="D6">
-        <v>1.010316861824591</v>
+        <v>1.042916217778877</v>
       </c>
       <c r="E6">
-        <v>1.011114115210222</v>
+        <v>1.043477550663671</v>
       </c>
       <c r="F6">
-        <v>1.01767299454119</v>
+        <v>1.053134737485721</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>1.015884599231679</v>
+        <v>1.03938159457864</v>
       </c>
       <c r="K6">
-        <v>1.020033637813747</v>
+        <v>1.045322777718984</v>
       </c>
       <c r="L6">
-        <v>1.020821793851221</v>
+        <v>1.045882747711316</v>
       </c>
       <c r="M6">
-        <v>1.027306496995794</v>
+        <v>1.055516731639881</v>
       </c>
       <c r="N6">
-        <v>1.008832627974141</v>
+        <v>1.017018099600504</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9953701631056131</v>
+        <v>1.034609574938314</v>
       </c>
       <c r="D7">
-        <v>1.008975957574171</v>
+        <v>1.042600842299759</v>
       </c>
       <c r="E7">
-        <v>1.009783597805642</v>
+        <v>1.043164391156677</v>
       </c>
       <c r="F7">
-        <v>1.016214833001462</v>
+        <v>1.052788865852407</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.023442985510381</v>
       </c>
       <c r="J7">
-        <v>1.014886912300267</v>
+        <v>1.03914581540783</v>
       </c>
       <c r="K7">
-        <v>1.018964278977051</v>
+        <v>1.045067541721403</v>
       </c>
       <c r="L7">
-        <v>1.019762397967973</v>
+        <v>1.045629686015226</v>
       </c>
       <c r="M7">
-        <v>1.026118483171637</v>
+        <v>1.055230422817505</v>
       </c>
       <c r="N7">
-        <v>1.008480719660146</v>
+        <v>1.016937256563269</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9886871182405957</v>
+        <v>1.033153400147238</v>
       </c>
       <c r="D8">
-        <v>1.003267424360808</v>
+        <v>1.041284696417669</v>
       </c>
       <c r="E8">
-        <v>1.004119785629988</v>
+        <v>1.041857514646188</v>
       </c>
       <c r="F8">
-        <v>1.010008683769521</v>
+        <v>1.051345729942386</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>1.010628651267747</v>
+        <v>1.038160745625785</v>
       </c>
       <c r="K8">
-        <v>1.01440331746765</v>
+        <v>1.044001527689888</v>
       </c>
       <c r="L8">
-        <v>1.015244239497525</v>
+        <v>1.044572763738084</v>
       </c>
       <c r="M8">
-        <v>1.021054766554478</v>
+        <v>1.054035043151073</v>
       </c>
       <c r="N8">
-        <v>1.006976270952649</v>
+        <v>1.016599042748458</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.976348877175656</v>
+        <v>1.030593260206128</v>
       </c>
       <c r="D9">
-        <v>0.9927822670627513</v>
+        <v>1.03897331779385</v>
       </c>
       <c r="E9">
-        <v>0.9937188967916092</v>
+        <v>1.039562498016329</v>
       </c>
       <c r="F9">
-        <v>0.9986150009137036</v>
+        <v>1.048812380038185</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>1.00276538012783</v>
+        <v>1.036426634509789</v>
       </c>
       <c r="K9">
-        <v>1.005993542563763</v>
+        <v>1.042126226636269</v>
       </c>
       <c r="L9">
-        <v>1.006914709218446</v>
+        <v>1.042713498095249</v>
       </c>
       <c r="M9">
-        <v>1.011730588800036</v>
+        <v>1.051933720943189</v>
       </c>
       <c r="N9">
-        <v>1.004189607740219</v>
+        <v>1.016001940929356</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9676963801861111</v>
+        <v>1.028890403018466</v>
       </c>
       <c r="D10">
-        <v>0.9854700052117116</v>
+        <v>1.037437692101012</v>
       </c>
       <c r="E10">
-        <v>0.9864670537499886</v>
+        <v>1.038037801025489</v>
       </c>
       <c r="F10">
-        <v>0.9906722803855696</v>
+        <v>1.047129980899864</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9972529898390614</v>
+        <v>1.035271721961216</v>
       </c>
       <c r="K10">
-        <v>1.000106654231389</v>
+        <v>1.040878161823052</v>
       </c>
       <c r="L10">
-        <v>1.001085025555858</v>
+        <v>1.04147613454198</v>
       </c>
       <c r="M10">
-        <v>1.005212017066619</v>
+        <v>1.050536279062445</v>
       </c>
       <c r="N10">
-        <v>1.002231130759344</v>
+        <v>1.015603130729733</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9638363703925706</v>
+        <v>1.028153968821848</v>
       </c>
       <c r="D11">
-        <v>0.9822185613497102</v>
+        <v>1.03677400903684</v>
       </c>
       <c r="E11">
-        <v>0.9832429184059248</v>
+        <v>1.037378855507853</v>
       </c>
       <c r="F11">
-        <v>0.987141110299196</v>
+        <v>1.046403028840855</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9947950184806102</v>
+        <v>1.034771909872482</v>
       </c>
       <c r="K11">
-        <v>0.9974837851000468</v>
+        <v>1.04033824558155</v>
       </c>
       <c r="L11">
-        <v>0.9984879221724821</v>
+        <v>1.040940854931738</v>
       </c>
       <c r="M11">
-        <v>1.002309670167868</v>
+        <v>1.049931990277615</v>
       </c>
       <c r="N11">
-        <v>1.001356872502094</v>
+        <v>1.015430268366701</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9623844216210632</v>
+        <v>1.027880561293763</v>
       </c>
       <c r="D12">
-        <v>0.9809972199793574</v>
+        <v>1.036527676121871</v>
       </c>
       <c r="E12">
-        <v>0.9820319061978814</v>
+        <v>1.037134283165017</v>
       </c>
       <c r="F12">
-        <v>0.985814775049155</v>
+        <v>1.046133237728193</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9938706939958591</v>
+        <v>1.03458629849085</v>
       </c>
       <c r="K12">
-        <v>0.9964977690339274</v>
+        <v>1.040137772552842</v>
       </c>
       <c r="L12">
-        <v>0.9975116371464459</v>
+        <v>1.04074210461495</v>
       </c>
       <c r="M12">
-        <v>1.001218882799154</v>
+        <v>1.049707652809719</v>
       </c>
       <c r="N12">
-        <v>1.001027977170438</v>
+        <v>1.015366033521727</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9626967109076611</v>
+        <v>1.027939201947363</v>
       </c>
       <c r="D13">
-        <v>0.9812598314887087</v>
+        <v>1.03658050683264</v>
       </c>
       <c r="E13">
-        <v>0.9822922934433745</v>
+        <v>1.037186736188707</v>
       </c>
       <c r="F13">
-        <v>0.98609995882344</v>
+        <v>1.046191098369844</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9940694881488454</v>
+        <v>1.034626110901284</v>
       </c>
       <c r="K13">
-        <v>0.9967098167091487</v>
+        <v>1.040180771260392</v>
       </c>
       <c r="L13">
-        <v>0.9977215900323242</v>
+        <v>1.040784733773738</v>
       </c>
       <c r="M13">
-        <v>1.001453448872249</v>
+        <v>1.049755768421108</v>
       </c>
       <c r="N13">
-        <v>1.001098718116467</v>
+        <v>1.015379813290174</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9637167293590472</v>
+        <v>1.028131366079543</v>
       </c>
       <c r="D14">
-        <v>0.9821178874601336</v>
+        <v>1.036753643233756</v>
       </c>
       <c r="E14">
-        <v>0.9831430944616675</v>
+        <v>1.037358635216957</v>
       </c>
       <c r="F14">
-        <v>0.9870317803232346</v>
+        <v>1.046380723104707</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9947188484704467</v>
+        <v>1.034756566339011</v>
       </c>
       <c r="K14">
-        <v>0.9974025248252698</v>
+        <v>1.040321672869031</v>
       </c>
       <c r="L14">
-        <v>0.9984074629280668</v>
+        <v>1.040924424609596</v>
       </c>
       <c r="M14">
-        <v>1.002219769465667</v>
+        <v>1.049913443976721</v>
       </c>
       <c r="N14">
-        <v>1.001329772026099</v>
+        <v>1.015424959224897</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9643427534494193</v>
+        <v>1.02824978287455</v>
       </c>
       <c r="D15">
-        <v>0.9826447351905222</v>
+        <v>1.036860343274567</v>
       </c>
       <c r="E15">
-        <v>0.9836654971822845</v>
+        <v>1.037464572983329</v>
       </c>
       <c r="F15">
-        <v>0.9876039303628091</v>
+        <v>1.046497587811238</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833787</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9951174199677665</v>
+        <v>1.034836949687171</v>
       </c>
       <c r="K15">
-        <v>0.9978277449357499</v>
+        <v>1.040408497063663</v>
       </c>
       <c r="L15">
-        <v>0.9988284932428672</v>
+        <v>1.04101050286887</v>
       </c>
       <c r="M15">
-        <v>1.002690215269617</v>
+        <v>1.050010609301042</v>
       </c>
       <c r="N15">
-        <v>1.001471574357617</v>
+        <v>1.015452771677571</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9679500723799984</v>
+        <v>1.028939296955285</v>
       </c>
       <c r="D16">
-        <v>0.9856839301733287</v>
+        <v>1.037481764982884</v>
       </c>
       <c r="E16">
-        <v>0.9866791916023324</v>
+        <v>1.038081559607479</v>
       </c>
       <c r="F16">
-        <v>0.9909046213485743</v>
+        <v>1.047178258732104</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.9974145658700919</v>
+        <v>1.035304898598095</v>
       </c>
       <c r="K16">
-        <v>1.000279113799425</v>
+        <v>1.040914004920491</v>
       </c>
       <c r="L16">
-        <v>1.001255797023611</v>
+        <v>1.041511669984828</v>
       </c>
       <c r="M16">
-        <v>1.00540289365956</v>
+        <v>1.050576400858557</v>
       </c>
       <c r="N16">
-        <v>1.002288581747203</v>
+        <v>1.015614599368302</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9701817134905862</v>
+        <v>1.029372055375552</v>
       </c>
       <c r="D17">
-        <v>0.9875669763884044</v>
+        <v>1.037871902059073</v>
       </c>
       <c r="E17">
-        <v>0.9885465580137996</v>
+        <v>1.038468916127406</v>
       </c>
       <c r="F17">
-        <v>0.9929498402081341</v>
+        <v>1.047605637489823</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862435</v>
       </c>
       <c r="J17">
-        <v>0.9988360363801283</v>
+        <v>1.03559850366848</v>
       </c>
       <c r="K17">
-        <v>1.001796570877531</v>
+        <v>1.041231231715783</v>
       </c>
       <c r="L17">
-        <v>1.002758432697223</v>
+        <v>1.041826174744545</v>
       </c>
       <c r="M17">
-        <v>1.007082623891764</v>
+        <v>1.050931524683973</v>
       </c>
       <c r="N17">
-        <v>1.002793899936501</v>
+        <v>1.01571606292318</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9714725294346506</v>
+        <v>1.029624564275758</v>
       </c>
       <c r="D18">
-        <v>0.9886571642484343</v>
+        <v>1.038099583291895</v>
       </c>
       <c r="E18">
-        <v>0.9896277097990531</v>
+        <v>1.038694976022444</v>
       </c>
       <c r="F18">
-        <v>0.9941339766397478</v>
+        <v>1.047855068656766</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9996583451807648</v>
+        <v>1.03576978483877</v>
       </c>
       <c r="K18">
-        <v>1.002674605001245</v>
+        <v>1.041416313360778</v>
       </c>
       <c r="L18">
-        <v>1.003627917036952</v>
+        <v>1.042009668951994</v>
       </c>
       <c r="M18">
-        <v>1.008054739389044</v>
+        <v>1.051138740811139</v>
       </c>
       <c r="N18">
-        <v>1.003086128704131</v>
+        <v>1.015775228007061</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.971910854632052</v>
+        <v>1.029710678264679</v>
       </c>
       <c r="D19">
-        <v>0.9890275295011339</v>
+        <v>1.038177237202941</v>
       </c>
       <c r="E19">
-        <v>0.9899950122051965</v>
+        <v>1.038772077185316</v>
       </c>
       <c r="F19">
-        <v>0.9945362690070971</v>
+        <v>1.047940143398595</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9999375948057978</v>
+        <v>1.035828191749015</v>
       </c>
       <c r="K19">
-        <v>1.002972811953296</v>
+        <v>1.041479429660769</v>
       </c>
       <c r="L19">
-        <v>1.003923224581117</v>
+        <v>1.042072244023563</v>
       </c>
       <c r="M19">
-        <v>1.008384930936659</v>
+        <v>1.051209409449441</v>
       </c>
       <c r="N19">
-        <v>1.003185350920951</v>
+        <v>1.015795398900245</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9699434109507469</v>
+        <v>1.029325615369017</v>
       </c>
       <c r="D20">
-        <v>0.9873657931626001</v>
+        <v>1.037830031538081</v>
       </c>
       <c r="E20">
-        <v>0.9883470456447351</v>
+        <v>1.03842734388042</v>
       </c>
       <c r="F20">
-        <v>0.9927313245572599</v>
+        <v>1.04755976844583</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030192</v>
       </c>
       <c r="J20">
-        <v>0.9986842350434277</v>
+        <v>1.03556699990182</v>
       </c>
       <c r="K20">
-        <v>1.001634498401818</v>
+        <v>1.041197191252291</v>
       </c>
       <c r="L20">
-        <v>1.002597940485916</v>
+        <v>1.041792426300611</v>
       </c>
       <c r="M20">
-        <v>1.006903200442941</v>
+        <v>1.050893415146862</v>
       </c>
       <c r="N20">
-        <v>1.002739945705994</v>
+        <v>1.01570517858955</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9634168704429183</v>
+        <v>1.02807477475583</v>
       </c>
       <c r="D21">
-        <v>0.9818655939185618</v>
+        <v>1.036702653672456</v>
       </c>
       <c r="E21">
-        <v>0.9828929320878644</v>
+        <v>1.03730801000777</v>
       </c>
       <c r="F21">
-        <v>0.9867577954624261</v>
+        <v>1.046324876961286</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9945279461074873</v>
+        <v>1.034718149329076</v>
       </c>
       <c r="K21">
-        <v>0.9971988700473289</v>
+        <v>1.040280178760443</v>
       </c>
       <c r="L21">
-        <v>0.9982058164294024</v>
+        <v>1.040883287030517</v>
       </c>
       <c r="M21">
-        <v>1.001994464728331</v>
+        <v>1.049867009078174</v>
       </c>
       <c r="N21">
-        <v>1.001261848987965</v>
+        <v>1.015411665590211</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9592076248019467</v>
+        <v>1.027289113602919</v>
       </c>
       <c r="D22">
-        <v>0.9783282050019692</v>
+        <v>1.035994917354998</v>
       </c>
       <c r="E22">
-        <v>0.9793856001628233</v>
+        <v>1.036605336123456</v>
       </c>
       <c r="F22">
-        <v>0.9829164483245214</v>
+        <v>1.045549789715972</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9918488432237417</v>
+        <v>1.034184681034617</v>
       </c>
       <c r="K22">
-        <v>0.9943415663374475</v>
+        <v>1.03970405585322</v>
       </c>
       <c r="L22">
-        <v>0.9953768002880665</v>
+        <v>1.040312117006445</v>
       </c>
       <c r="M22">
-        <v>0.9988341040627062</v>
+        <v>1.049222374488053</v>
       </c>
       <c r="N22">
-        <v>1.000308340069514</v>
+        <v>1.015226971610363</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9614494513239104</v>
+        <v>1.027705532513927</v>
       </c>
       <c r="D23">
-        <v>0.9802112368490339</v>
+        <v>1.036369998269674</v>
       </c>
       <c r="E23">
-        <v>0.9812525909993859</v>
+        <v>1.036977732875265</v>
       </c>
       <c r="F23">
-        <v>0.9849612449925104</v>
+        <v>1.045960551229605</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288725</v>
       </c>
       <c r="J23">
-        <v>0.9932755607737009</v>
+        <v>1.034467460094397</v>
       </c>
       <c r="K23">
-        <v>0.9958630055729527</v>
+        <v>1.040009427812279</v>
       </c>
       <c r="L23">
-        <v>0.9968831512542693</v>
+        <v>1.040614863087235</v>
       </c>
       <c r="M23">
-        <v>1.000516753384189</v>
+        <v>1.049564040342087</v>
       </c>
       <c r="N23">
-        <v>1.000816181353253</v>
+        <v>1.015324895597774</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9700511230964802</v>
+        <v>1.029346599336146</v>
       </c>
       <c r="D24">
-        <v>0.9874567243635445</v>
+        <v>1.037848950650665</v>
       </c>
       <c r="E24">
-        <v>0.9884372215194557</v>
+        <v>1.038446128214239</v>
       </c>
       <c r="F24">
-        <v>0.9928300895193112</v>
+        <v>1.04758049423388</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9987528485336061</v>
+        <v>1.035581235016566</v>
       </c>
       <c r="K24">
-        <v>1.001707753785165</v>
+        <v>1.041212572522178</v>
       </c>
       <c r="L24">
-        <v>1.002670481522132</v>
+        <v>1.04180767561857</v>
       </c>
       <c r="M24">
-        <v>1.006984297740239</v>
+        <v>1.050910634963928</v>
       </c>
       <c r="N24">
-        <v>1.002764333055912</v>
+        <v>1.015710096803594</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9796100380381562</v>
+        <v>1.031254428840189</v>
       </c>
       <c r="D25">
-        <v>0.9955469388491249</v>
+        <v>1.039569933292316</v>
       </c>
       <c r="E25">
-        <v>0.9964610801901111</v>
+        <v>1.040154880025948</v>
       </c>
       <c r="F25">
-        <v>1.001618644128612</v>
+        <v>1.049466167349458</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>1.004843644606509</v>
+        <v>1.036874740070763</v>
       </c>
       <c r="K25">
-        <v>1.008214778435074</v>
+        <v>1.042610661690446</v>
       </c>
       <c r="L25">
-        <v>1.009114582873267</v>
+        <v>1.043193785761264</v>
       </c>
       <c r="M25">
-        <v>1.014191884591445</v>
+        <v>1.052476358168658</v>
       </c>
       <c r="N25">
-        <v>1.004927037187491</v>
+        <v>1.016156437977593</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_181/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_181/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03277891718434</v>
+        <v>0.9869301857721705</v>
       </c>
       <c r="D2">
-        <v>1.040946397824372</v>
+        <v>1.001770133077214</v>
       </c>
       <c r="E2">
-        <v>1.041521604215283</v>
+        <v>1.002634358953113</v>
       </c>
       <c r="F2">
-        <v>1.05097486132993</v>
+        <v>1.008381256814216</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02359499962809</v>
+        <v>1.045224098310602</v>
       </c>
       <c r="J2">
-        <v>1.037907263792016</v>
+        <v>1.009508966044421</v>
       </c>
       <c r="K2">
-        <v>1.043727305393432</v>
+        <v>1.013204862098451</v>
       </c>
       <c r="L2">
-        <v>1.044300882976483</v>
+        <v>1.014057114573381</v>
       </c>
       <c r="M2">
-        <v>1.053727648330375</v>
+        <v>1.019725049382204</v>
       </c>
       <c r="N2">
-        <v>1.016511895717824</v>
+        <v>1.006580085832158</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033887469934977</v>
+        <v>0.9920853276894636</v>
       </c>
       <c r="D3">
-        <v>1.041948041778461</v>
+        <v>1.006167499211725</v>
       </c>
       <c r="E3">
-        <v>1.042516183855932</v>
+        <v>1.006997039482446</v>
       </c>
       <c r="F3">
-        <v>1.052073023416918</v>
+        <v>1.013161255380654</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208684</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.038657446785932</v>
+        <v>1.012794104984075</v>
       </c>
       <c r="K3">
-        <v>1.044538974358904</v>
+        <v>1.01672206929932</v>
       </c>
       <c r="L3">
-        <v>1.045105624527215</v>
+        <v>1.017541167921869</v>
       </c>
       <c r="M3">
-        <v>1.054637628989984</v>
+        <v>1.023628460164756</v>
       </c>
       <c r="N3">
-        <v>1.016769671234598</v>
+        <v>1.007741802494142</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034605539528363</v>
+        <v>0.9953519635318722</v>
       </c>
       <c r="D4">
-        <v>1.042597193449365</v>
+        <v>1.008960383314182</v>
       </c>
       <c r="E4">
-        <v>1.043160767956478</v>
+        <v>1.009768144449614</v>
       </c>
       <c r="F4">
-        <v>1.052784864318794</v>
+        <v>1.016197897706754</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.039143086872412</v>
+        <v>1.01487531852866</v>
       </c>
       <c r="K4">
-        <v>1.045064588212532</v>
+        <v>1.018951854060318</v>
       </c>
       <c r="L4">
-        <v>1.045626757672421</v>
+        <v>1.019750088973159</v>
       </c>
       <c r="M4">
-        <v>1.055227109970175</v>
+        <v>1.026104681406543</v>
       </c>
       <c r="N4">
-        <v>1.016936320762674</v>
+        <v>1.008476628887285</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034907598564819</v>
+        <v>0.9967094010272052</v>
       </c>
       <c r="D5">
-        <v>1.042870340833675</v>
+        <v>1.010122441029145</v>
       </c>
       <c r="E5">
-        <v>1.043431995946438</v>
+        <v>1.010921197648188</v>
       </c>
       <c r="F5">
-        <v>1.053084422705107</v>
+        <v>1.01746156295345</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628374</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.039347302746772</v>
+        <v>1.015740004889821</v>
       </c>
       <c r="K5">
-        <v>1.045285654064283</v>
+        <v>1.019878637744346</v>
       </c>
       <c r="L5">
-        <v>1.045845940244149</v>
+        <v>1.020668236170905</v>
       </c>
       <c r="M5">
-        <v>1.055475086085017</v>
+        <v>1.027134279056551</v>
       </c>
       <c r="N5">
-        <v>1.017006344425932</v>
+        <v>1.008781640676388</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034958326318581</v>
+        <v>0.9969364101005389</v>
       </c>
       <c r="D6">
-        <v>1.042916217778877</v>
+        <v>1.01031686182459</v>
       </c>
       <c r="E6">
-        <v>1.043477550663671</v>
+        <v>1.011114115210221</v>
       </c>
       <c r="F6">
-        <v>1.053134737485721</v>
+        <v>1.017672994541188</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.03938159457864</v>
+        <v>1.015884599231677</v>
       </c>
       <c r="K6">
-        <v>1.045322777718984</v>
+        <v>1.020033637813745</v>
       </c>
       <c r="L6">
-        <v>1.045882747711316</v>
+        <v>1.020821793851219</v>
       </c>
       <c r="M6">
-        <v>1.055516731639881</v>
+        <v>1.027306496995792</v>
       </c>
       <c r="N6">
-        <v>1.017018099600504</v>
+        <v>1.008832627974141</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034609574938314</v>
+        <v>0.9953701631056128</v>
       </c>
       <c r="D7">
-        <v>1.042600842299759</v>
+        <v>1.00897595757417</v>
       </c>
       <c r="E7">
-        <v>1.043164391156677</v>
+        <v>1.009783597805641</v>
       </c>
       <c r="F7">
-        <v>1.052788865852407</v>
+        <v>1.016214833001461</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023442985510381</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.03914581540783</v>
+        <v>1.014886912300267</v>
       </c>
       <c r="K7">
-        <v>1.045067541721403</v>
+        <v>1.018964278977051</v>
       </c>
       <c r="L7">
-        <v>1.045629686015226</v>
+        <v>1.019762397967972</v>
       </c>
       <c r="M7">
-        <v>1.055230422817505</v>
+        <v>1.026118483171637</v>
       </c>
       <c r="N7">
-        <v>1.016937256563269</v>
+        <v>1.008480719660146</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033153400147238</v>
+        <v>0.9886871182405954</v>
       </c>
       <c r="D8">
-        <v>1.041284696417669</v>
+        <v>1.003267424360807</v>
       </c>
       <c r="E8">
-        <v>1.041857514646188</v>
+        <v>1.004119785629988</v>
       </c>
       <c r="F8">
-        <v>1.051345729942386</v>
+        <v>1.010008683769521</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.038160745625785</v>
+        <v>1.010628651267746</v>
       </c>
       <c r="K8">
-        <v>1.044001527689888</v>
+        <v>1.014403317467649</v>
       </c>
       <c r="L8">
-        <v>1.044572763738084</v>
+        <v>1.015244239497525</v>
       </c>
       <c r="M8">
-        <v>1.054035043151073</v>
+        <v>1.021054766554478</v>
       </c>
       <c r="N8">
-        <v>1.016599042748458</v>
+        <v>1.006976270952649</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030593260206128</v>
+        <v>0.9763488771756554</v>
       </c>
       <c r="D9">
-        <v>1.03897331779385</v>
+        <v>0.9927822670627509</v>
       </c>
       <c r="E9">
-        <v>1.039562498016329</v>
+        <v>0.9937188967916087</v>
       </c>
       <c r="F9">
-        <v>1.048812380038185</v>
+        <v>0.9986150009137031</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.036426634509789</v>
+        <v>1.00276538012783</v>
       </c>
       <c r="K9">
-        <v>1.042126226636269</v>
+        <v>1.005993542563762</v>
       </c>
       <c r="L9">
-        <v>1.042713498095249</v>
+        <v>1.006914709218446</v>
       </c>
       <c r="M9">
-        <v>1.051933720943189</v>
+        <v>1.011730588800036</v>
       </c>
       <c r="N9">
-        <v>1.016001940929356</v>
+        <v>1.004189607740219</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028890403018466</v>
+        <v>0.9676963801861108</v>
       </c>
       <c r="D10">
-        <v>1.037437692101012</v>
+        <v>0.9854700052117109</v>
       </c>
       <c r="E10">
-        <v>1.038037801025489</v>
+        <v>0.9864670537499882</v>
       </c>
       <c r="F10">
-        <v>1.047129980899864</v>
+        <v>0.9906722803855693</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.035271721961216</v>
+        <v>0.9972529898390612</v>
       </c>
       <c r="K10">
-        <v>1.040878161823052</v>
+        <v>1.000106654231388</v>
       </c>
       <c r="L10">
-        <v>1.04147613454198</v>
+        <v>1.001085025555857</v>
       </c>
       <c r="M10">
-        <v>1.050536279062445</v>
+        <v>1.005212017066619</v>
       </c>
       <c r="N10">
-        <v>1.015603130729733</v>
+        <v>1.002231130759344</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028153968821848</v>
+        <v>0.9638363703925703</v>
       </c>
       <c r="D11">
-        <v>1.03677400903684</v>
+        <v>0.9822185613497099</v>
       </c>
       <c r="E11">
-        <v>1.037378855507853</v>
+        <v>0.9832429184059244</v>
       </c>
       <c r="F11">
-        <v>1.046403028840855</v>
+        <v>0.9871411102991957</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.034771909872482</v>
+        <v>0.9947950184806099</v>
       </c>
       <c r="K11">
-        <v>1.04033824558155</v>
+        <v>0.9974837851000464</v>
       </c>
       <c r="L11">
-        <v>1.040940854931738</v>
+        <v>0.9984879221724816</v>
       </c>
       <c r="M11">
-        <v>1.049931990277615</v>
+        <v>1.002309670167867</v>
       </c>
       <c r="N11">
-        <v>1.015430268366701</v>
+        <v>1.001356872502094</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027880561293763</v>
+        <v>0.962384421621063</v>
       </c>
       <c r="D12">
-        <v>1.036527676121871</v>
+        <v>0.9809972199793568</v>
       </c>
       <c r="E12">
-        <v>1.037134283165017</v>
+        <v>0.9820319061978808</v>
       </c>
       <c r="F12">
-        <v>1.046133237728193</v>
+        <v>0.9858147750491544</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.03458629849085</v>
+        <v>0.9938706939958587</v>
       </c>
       <c r="K12">
-        <v>1.040137772552842</v>
+        <v>0.9964977690339267</v>
       </c>
       <c r="L12">
-        <v>1.04074210461495</v>
+        <v>0.9975116371464455</v>
       </c>
       <c r="M12">
-        <v>1.049707652809719</v>
+        <v>1.001218882799154</v>
       </c>
       <c r="N12">
-        <v>1.015366033521727</v>
+        <v>1.001027977170437</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027939201947363</v>
+        <v>0.9626967109076605</v>
       </c>
       <c r="D13">
-        <v>1.03658050683264</v>
+        <v>0.981259831488708</v>
       </c>
       <c r="E13">
-        <v>1.037186736188707</v>
+        <v>0.982292293443374</v>
       </c>
       <c r="F13">
-        <v>1.046191098369844</v>
+        <v>0.9860999588234394</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>1.034626110901284</v>
+        <v>0.994069488148845</v>
       </c>
       <c r="K13">
-        <v>1.040180771260392</v>
+        <v>0.9967098167091479</v>
       </c>
       <c r="L13">
-        <v>1.040784733773738</v>
+        <v>0.9977215900323236</v>
       </c>
       <c r="M13">
-        <v>1.049755768421108</v>
+        <v>1.001453448872248</v>
       </c>
       <c r="N13">
-        <v>1.015379813290174</v>
+        <v>1.001098718116466</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028131366079543</v>
+        <v>0.9637167293590473</v>
       </c>
       <c r="D14">
-        <v>1.036753643233756</v>
+        <v>0.9821178874601336</v>
       </c>
       <c r="E14">
-        <v>1.037358635216957</v>
+        <v>0.9831430944616676</v>
       </c>
       <c r="F14">
-        <v>1.046380723104707</v>
+        <v>0.9870317803232344</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012189</v>
       </c>
       <c r="J14">
-        <v>1.034756566339011</v>
+        <v>0.9947188484704467</v>
       </c>
       <c r="K14">
-        <v>1.040321672869031</v>
+        <v>0.9974025248252698</v>
       </c>
       <c r="L14">
-        <v>1.040924424609596</v>
+        <v>0.9984074629280669</v>
       </c>
       <c r="M14">
-        <v>1.049913443976721</v>
+        <v>1.002219769465667</v>
       </c>
       <c r="N14">
-        <v>1.015424959224897</v>
+        <v>1.001329772026099</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02824978287455</v>
+        <v>0.9643427534494193</v>
       </c>
       <c r="D15">
-        <v>1.036860343274567</v>
+        <v>0.9826447351905222</v>
       </c>
       <c r="E15">
-        <v>1.037464572983329</v>
+        <v>0.9836654971822845</v>
       </c>
       <c r="F15">
-        <v>1.046497587811238</v>
+        <v>0.987603930362809</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833787</v>
       </c>
       <c r="J15">
-        <v>1.034836949687171</v>
+        <v>0.9951174199677664</v>
       </c>
       <c r="K15">
-        <v>1.040408497063663</v>
+        <v>0.9978277449357499</v>
       </c>
       <c r="L15">
-        <v>1.04101050286887</v>
+        <v>0.998828493242867</v>
       </c>
       <c r="M15">
-        <v>1.050010609301042</v>
+        <v>1.002690215269617</v>
       </c>
       <c r="N15">
-        <v>1.015452771677571</v>
+        <v>1.001471574357617</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028939296955285</v>
+        <v>0.9679500723799989</v>
       </c>
       <c r="D16">
-        <v>1.037481764982884</v>
+        <v>0.985683930173329</v>
       </c>
       <c r="E16">
-        <v>1.038081559607479</v>
+        <v>0.9866791916023326</v>
       </c>
       <c r="F16">
-        <v>1.047178258732104</v>
+        <v>0.9909046213485746</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.035304898598095</v>
+        <v>0.9974145658700921</v>
       </c>
       <c r="K16">
-        <v>1.040914004920491</v>
+        <v>1.000279113799425</v>
       </c>
       <c r="L16">
-        <v>1.041511669984828</v>
+        <v>1.001255797023611</v>
       </c>
       <c r="M16">
-        <v>1.050576400858557</v>
+        <v>1.00540289365956</v>
       </c>
       <c r="N16">
-        <v>1.015614599368302</v>
+        <v>1.002288581747204</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029372055375552</v>
+        <v>0.970181713490586</v>
       </c>
       <c r="D17">
-        <v>1.037871902059073</v>
+        <v>0.9875669763884041</v>
       </c>
       <c r="E17">
-        <v>1.038468916127406</v>
+        <v>0.9885465580137992</v>
       </c>
       <c r="F17">
-        <v>1.047605637489823</v>
+        <v>0.9929498402081339</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862435</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.03559850366848</v>
+        <v>0.998836036380128</v>
       </c>
       <c r="K17">
-        <v>1.041231231715783</v>
+        <v>1.001796570877531</v>
       </c>
       <c r="L17">
-        <v>1.041826174744545</v>
+        <v>1.002758432697222</v>
       </c>
       <c r="M17">
-        <v>1.050931524683973</v>
+        <v>1.007082623891763</v>
       </c>
       <c r="N17">
-        <v>1.01571606292318</v>
+        <v>1.002793899936501</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029624564275758</v>
+        <v>0.9714725294346496</v>
       </c>
       <c r="D18">
-        <v>1.038099583291895</v>
+        <v>0.9886571642484334</v>
       </c>
       <c r="E18">
-        <v>1.038694976022444</v>
+        <v>0.9896277097990526</v>
       </c>
       <c r="F18">
-        <v>1.047855068656766</v>
+        <v>0.9941339766397468</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.03576978483877</v>
+        <v>0.999658345180764</v>
       </c>
       <c r="K18">
-        <v>1.041416313360778</v>
+        <v>1.002674605001244</v>
       </c>
       <c r="L18">
-        <v>1.042009668951994</v>
+        <v>1.003627917036951</v>
       </c>
       <c r="M18">
-        <v>1.051138740811139</v>
+        <v>1.008054739389043</v>
       </c>
       <c r="N18">
-        <v>1.015775228007061</v>
+        <v>1.003086128704131</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029710678264679</v>
+        <v>0.9719108546320511</v>
       </c>
       <c r="D19">
-        <v>1.038177237202941</v>
+        <v>0.9890275295011329</v>
       </c>
       <c r="E19">
-        <v>1.038772077185316</v>
+        <v>0.9899950122051955</v>
       </c>
       <c r="F19">
-        <v>1.047940143398595</v>
+        <v>0.9945362690070958</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>1.035828191749015</v>
+        <v>0.9999375948057971</v>
       </c>
       <c r="K19">
-        <v>1.041479429660769</v>
+        <v>1.002972811953295</v>
       </c>
       <c r="L19">
-        <v>1.042072244023563</v>
+        <v>1.003923224581116</v>
       </c>
       <c r="M19">
-        <v>1.051209409449441</v>
+        <v>1.008384930936658</v>
       </c>
       <c r="N19">
-        <v>1.015795398900245</v>
+        <v>1.003185350920951</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029325615369017</v>
+        <v>0.9699434109507468</v>
       </c>
       <c r="D20">
-        <v>1.037830031538081</v>
+        <v>0.9873657931625999</v>
       </c>
       <c r="E20">
-        <v>1.03842734388042</v>
+        <v>0.9883470456447349</v>
       </c>
       <c r="F20">
-        <v>1.04755976844583</v>
+        <v>0.9927313245572599</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030192</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.03556699990182</v>
+        <v>0.9986842350434275</v>
       </c>
       <c r="K20">
-        <v>1.041197191252291</v>
+        <v>1.001634498401818</v>
       </c>
       <c r="L20">
-        <v>1.041792426300611</v>
+        <v>1.002597940485916</v>
       </c>
       <c r="M20">
-        <v>1.050893415146862</v>
+        <v>1.006903200442941</v>
       </c>
       <c r="N20">
-        <v>1.01570517858955</v>
+        <v>1.002739945705994</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02807477475583</v>
+        <v>0.9634168704429185</v>
       </c>
       <c r="D21">
-        <v>1.036702653672456</v>
+        <v>0.9818655939185618</v>
       </c>
       <c r="E21">
-        <v>1.03730801000777</v>
+        <v>0.982892932087865</v>
       </c>
       <c r="F21">
-        <v>1.046324876961286</v>
+        <v>0.9867577954624261</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.034718149329076</v>
+        <v>0.9945279461074876</v>
       </c>
       <c r="K21">
-        <v>1.040280178760443</v>
+        <v>0.997198870047329</v>
       </c>
       <c r="L21">
-        <v>1.040883287030517</v>
+        <v>0.9982058164294029</v>
       </c>
       <c r="M21">
-        <v>1.049867009078174</v>
+        <v>1.001994464728331</v>
       </c>
       <c r="N21">
-        <v>1.015411665590211</v>
+        <v>1.001261848987965</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027289113602919</v>
+        <v>0.9592076248019469</v>
       </c>
       <c r="D22">
-        <v>1.035994917354998</v>
+        <v>0.9783282050019695</v>
       </c>
       <c r="E22">
-        <v>1.036605336123456</v>
+        <v>0.9793856001628234</v>
       </c>
       <c r="F22">
-        <v>1.045549789715972</v>
+        <v>0.9829164483245215</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.034184681034617</v>
+        <v>0.991848843223742</v>
       </c>
       <c r="K22">
-        <v>1.03970405585322</v>
+        <v>0.9943415663374477</v>
       </c>
       <c r="L22">
-        <v>1.040312117006445</v>
+        <v>0.9953768002880667</v>
       </c>
       <c r="M22">
-        <v>1.049222374488053</v>
+        <v>0.9988341040627063</v>
       </c>
       <c r="N22">
-        <v>1.015226971610363</v>
+        <v>1.000308340069514</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027705532513927</v>
+        <v>0.9614494513239106</v>
       </c>
       <c r="D23">
-        <v>1.036369998269674</v>
+        <v>0.9802112368490339</v>
       </c>
       <c r="E23">
-        <v>1.036977732875265</v>
+        <v>0.981252590999386</v>
       </c>
       <c r="F23">
-        <v>1.045960551229605</v>
+        <v>0.9849612449925104</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288725</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.034467460094397</v>
+        <v>0.9932755607737009</v>
       </c>
       <c r="K23">
-        <v>1.040009427812279</v>
+        <v>0.9958630055729527</v>
       </c>
       <c r="L23">
-        <v>1.040614863087235</v>
+        <v>0.9968831512542691</v>
       </c>
       <c r="M23">
-        <v>1.049564040342087</v>
+        <v>1.000516753384189</v>
       </c>
       <c r="N23">
-        <v>1.015324895597774</v>
+        <v>1.000816181353253</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029346599336146</v>
+        <v>0.9700511230964803</v>
       </c>
       <c r="D24">
-        <v>1.037848950650665</v>
+        <v>0.9874567243635447</v>
       </c>
       <c r="E24">
-        <v>1.038446128214239</v>
+        <v>0.9884372215194558</v>
       </c>
       <c r="F24">
-        <v>1.04758049423388</v>
+        <v>0.9928300895193115</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.035581235016566</v>
+        <v>0.9987528485336062</v>
       </c>
       <c r="K24">
-        <v>1.041212572522178</v>
+        <v>1.001707753785165</v>
       </c>
       <c r="L24">
-        <v>1.04180767561857</v>
+        <v>1.002670481522133</v>
       </c>
       <c r="M24">
-        <v>1.050910634963928</v>
+        <v>1.006984297740239</v>
       </c>
       <c r="N24">
-        <v>1.015710096803594</v>
+        <v>1.002764333055912</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031254428840189</v>
+        <v>0.9796100380381561</v>
       </c>
       <c r="D25">
-        <v>1.039569933292316</v>
+        <v>0.9955469388491248</v>
       </c>
       <c r="E25">
-        <v>1.040154880025948</v>
+        <v>0.9964610801901108</v>
       </c>
       <c r="F25">
-        <v>1.049466167349458</v>
+        <v>1.001618644128613</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.036874740070763</v>
+        <v>1.004843644606509</v>
       </c>
       <c r="K25">
-        <v>1.042610661690446</v>
+        <v>1.008214778435073</v>
       </c>
       <c r="L25">
-        <v>1.043193785761264</v>
+        <v>1.009114582873267</v>
       </c>
       <c r="M25">
-        <v>1.052476358168658</v>
+        <v>1.014191884591445</v>
       </c>
       <c r="N25">
-        <v>1.016156437977593</v>
+        <v>1.004927037187491</v>
       </c>
     </row>
   </sheetData>
